--- a/files/NAACCR-DD-subset.xlsx
+++ b/files/NAACCR-DD-subset.xlsx
@@ -13697,7 +13697,7 @@
   <dimension ref="A1:G2669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
